--- a/indicators/NO_URGR_001-006/metadata.xlsx
+++ b/indicators/NO_URGR_001-006/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61546-01_fu_intern_sylvie_clappe\ecRixv_urbangreen\ecRxiv_urbangreen\indicators\NO_URGR_010-031\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61546-01_fu_intern_sylvie_clappe\ecRixv_urbangreen\ecRxiv_urbangreen\indicators\NO_URGR_001-006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9E935-DF16-4D5D-AF2C-54557A3966C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D44EAB5-EC29-4C48-8AF9-85B22B6CF67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
@@ -696,19 +696,19 @@
     <t>A2 - Chemical State characteristics</t>
   </si>
   <si>
-    <t>URGR_013_to_031</t>
+    <t>Draft version</t>
+  </si>
+  <si>
+    <t>Clappe, S., Czúcz, B.</t>
+  </si>
+  <si>
+    <t>NO_URGR_000-006</t>
   </si>
   <si>
     <t>Urban Green</t>
   </si>
   <si>
-    <t>First draft version, work in progress</t>
-  </si>
-  <si>
-    <t>Clappe, S., Czúcz, B.</t>
-  </si>
-  <si>
-    <t>National scale - Aggregated at Regional level</t>
+    <t>Transform - Mask - Aggregate</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>199</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>201</v>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>2024</v>
+        <v>1901</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -1328,7 +1328,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>166</v>
@@ -1354,7 +1354,7 @@
         <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -1366,7 +1366,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>183</v>
